--- a/Matplotlib&Seaborn/Matplotlib_Function.xlsx
+++ b/Matplotlib&Seaborn/Matplotlib_Function.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakadakyota/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakadakyota/Documents/kyonakablog/毎日python/Matplotlib&amp;Seaborn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4A3973-6B5A-D449-AE6C-5D40919BEF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D077681-9A3C-E042-B8AB-197ADBAD3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15980" xr2:uid="{B2B93535-A648-8448-B355-ACBBB8778DFA}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
